--- a/generated_docs/WR_89774377_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>William Kyle Roberts</t>
+          <t>Jonathan Estrada</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>832-1</t>
+          <t>709-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89774377_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I90"/>
+  <dimension ref="A2:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16572.74</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>1174.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="H25" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1121,28 +1121,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1176,20 +1176,20 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>365.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1210,20 +1210,20 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>112.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1244,20 +1244,20 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1278,20 +1278,20 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1359,18 +1359,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1380,31 +1380,31 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>306.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1414,31 +1414,31 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>94.31999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1448,31 +1448,31 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1495,18 +1495,18 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>701.0599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1559,22 +1559,22 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1584,31 +1584,31 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1618,31 +1618,31 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1699,18 +1699,18 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1729,22 +1729,22 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -1788,31 +1788,31 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>154.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1822,31 +1822,31 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>47.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -1903,18 +1903,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -1937,18 +1937,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -1958,31 +1958,31 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>170.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -1992,31 +1992,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>52.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2035,22 +2035,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2060,31 +2060,31 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2107,18 +2107,18 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2128,31 +2128,31 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>212.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2162,26 +2162,26 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>65.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
@@ -2205,17 +2205,17 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>124.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
@@ -2239,17 +2239,17 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>38.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
@@ -2277,13 +2277,13 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
@@ -2311,13 +2311,13 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
@@ -2345,18 +2345,18 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2366,31 +2366,31 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>615.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2409,22 +2409,22 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>87.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2434,31 +2434,31 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2468,31 +2468,31 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>245.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2515,18 +2515,18 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2549,18 +2549,18 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2579,17 +2579,17 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>222.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2638,31 +2638,31 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2681,22 +2681,22 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2706,31 +2706,31 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2740,31 +2740,31 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2787,18 +2787,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2817,17 +2817,17 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
@@ -2855,18 +2855,18 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2885,22 +2885,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2910,31 +2910,31 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2944,31 +2944,31 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2991,18 +2991,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3021,31 +3021,915 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="15" t="inlineStr">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H90" s="16" t="n">
-        <v>14919.56</v>
+      <c r="H116" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A116:G116"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A90:G90"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>

--- a/generated_docs/WR_89774377_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I116"/>
+  <dimension ref="A2:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>16572.74</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>1174.63</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +932,7 @@
         </is>
       </c>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1049,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="33">
@@ -1121,28 +1117,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1151,22 +1147,22 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1176,20 +1172,20 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>365.04</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1196,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1210,20 +1206,20 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>112.32</v>
       </c>
     </row>
     <row r="37">
@@ -1234,7 +1230,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1244,20 +1240,20 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="38">
@@ -1268,7 +1264,7 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1278,20 +1274,20 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1302,7 +1298,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1312,7 +1308,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="40">
@@ -1336,7 +1332,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1346,7 +1342,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1359,18 +1355,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-78W-I-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1380,31 +1376,31 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>306.54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1414,31 +1410,31 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>94.31999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1448,31 +1444,31 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1482,7 +1478,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1495,18 +1491,18 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1516,7 +1512,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1525,22 +1521,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>701.0599999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1559,22 +1555,22 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1584,31 +1580,31 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1618,31 +1614,31 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1661,22 +1657,22 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1686,7 +1682,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1699,18 +1695,18 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1720,7 +1716,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1729,22 +1725,22 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1763,22 +1759,22 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -1788,31 +1784,31 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>154.44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1822,31 +1818,31 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1865,22 +1861,22 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -1903,18 +1899,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -1924,7 +1920,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -1937,18 +1933,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -1958,31 +1954,31 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>170.82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-78W-I-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -1992,31 +1988,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2026,7 +2022,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2035,22 +2031,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2060,31 +2056,31 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2094,7 +2090,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2107,18 +2103,18 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2128,31 +2124,31 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>212.94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2162,26 +2158,26 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>65.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
@@ -2205,17 +2201,17 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>124.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
@@ -2239,17 +2235,17 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
@@ -2277,13 +2273,13 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
@@ -2311,13 +2307,13 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
@@ -2345,18 +2341,18 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2366,31 +2362,31 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>615.42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2400,7 +2396,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2409,22 +2405,22 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2434,31 +2430,31 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2468,31 +2464,31 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>245.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2502,7 +2498,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2515,18 +2511,18 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2536,7 +2532,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2549,18 +2545,18 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2570,7 +2566,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2579,17 +2575,17 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
@@ -2613,22 +2609,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2638,31 +2634,31 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2672,7 +2668,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2681,22 +2677,22 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2706,31 +2702,31 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2740,31 +2736,31 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2774,7 +2770,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2787,18 +2783,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2808,7 +2804,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2817,17 +2813,17 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
@@ -2855,18 +2851,18 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2876,7 +2872,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2885,22 +2881,22 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2910,31 +2906,31 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2944,31 +2940,31 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2978,7 +2974,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2991,18 +2987,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3012,7 +3008,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3021,915 +3017,31 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C90" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E90" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F90" s="10" t="n">
-        <v>105</v>
-      </c>
-      <c r="G90" s="10" t="inlineStr"/>
-      <c r="H90" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B91" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C91" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D91" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E91" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="13" t="inlineStr"/>
-      <c r="H91" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C92" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E92" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="10" t="inlineStr"/>
-      <c r="H92" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B93" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C93" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D93" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E93" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" s="13" t="inlineStr"/>
-      <c r="H93" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C94" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E94" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="10" t="inlineStr"/>
-      <c r="H94" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B95" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C95" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D95" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E95" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G95" s="13" t="inlineStr"/>
-      <c r="H95" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>95</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B97" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C97" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D97" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E97" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="13" t="inlineStr"/>
-      <c r="H97" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E98" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B99" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C99" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D99" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E99" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="13" t="inlineStr"/>
-      <c r="H99" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C100" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D100" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E100" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G100" s="10" t="inlineStr"/>
-      <c r="H100" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B101" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C101" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E101" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13" t="inlineStr"/>
-      <c r="H101" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E102" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="10" t="inlineStr"/>
-      <c r="H102" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B103" s="12" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C103" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="12" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E103" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="13" t="inlineStr"/>
-      <c r="H103" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B105" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C105" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D105" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G105" s="13" t="inlineStr"/>
-      <c r="H105" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C106" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E106" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F106" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G106" s="10" t="inlineStr"/>
-      <c r="H106" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B107" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C107" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E107" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="13" t="inlineStr"/>
-      <c r="H107" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="10" t="inlineStr"/>
-      <c r="H108" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B109" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C109" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E109" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="13" t="inlineStr"/>
-      <c r="H109" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C110" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="10" t="inlineStr"/>
-      <c r="H110" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B111" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C111" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E111" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" s="13" t="inlineStr"/>
-      <c r="H111" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C112" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D112" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B113" s="12" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C113" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D113" s="12" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C114" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B115" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DSC-16-96-D1</t>
-        </is>
-      </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="15" t="inlineStr">
+      <c r="A90" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H116" s="16" t="n">
-        <v>0</v>
+      <c r="H90" s="16" t="n">
+        <v>14919.56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A116:G116"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A90:G90"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
